--- a/部署脚本/20190613/20190613_转测清单.xlsx
+++ b/部署脚本/20190613/20190613_转测清单.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\部署脚本\20190613\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE1F2D-BBE1-48FA-8598-E43E07E3D324}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="升级清单" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>服务</t>
   </si>
@@ -142,19 +147,114 @@
   <si>
     <t>1.用户名密码错
 2.非有效期内帐号</t>
+  </si>
+  <si>
+    <t>robot/dispatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api添加tts任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVAR-1175
+tts任务变量params参数分割符问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过api添加tts任务时，params使用~分割</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能正常拨出电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裴清华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话挂断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVAR-1156
+呼叫中心重复挂断，致robot重复释放机器人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人为制造重复挂断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复挂断时，机器人未受影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirdApi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api查询参数pageNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVAR-1160
+【预生产环境】三方API，查询批次号的通话列表接口，参数pageNum上限未设定为5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询参数pageNum大于5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>linemarket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户id,线路id查询线路名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVAR-1056
+queryUserSipLineByLineId 接口增加缓存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、能正常打电话
+2、变更线路名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、呼叫中心的记录的线路名称也随着变更</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常发布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,163 +269,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,194 +293,8 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -539,245 +302,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,58 +336,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -929,6 +416,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1186,28 +676,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G8" sqref="G8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="1025" width="8.63333333333333" customWidth="1"/>
+    <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1271,7 +761,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1288,7 +778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1305,46 +795,105 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="55.5" customWidth="1"/>
-    <col min="3" max="3" width="8.63333333333333" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
     <col min="4" max="4" width="43.25" customWidth="1"/>
-    <col min="5" max="5" width="77.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="77.375" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
     <col min="9" max="9" width="42.5" customWidth="1"/>
-    <col min="10" max="1025" width="8.63333333333333" customWidth="1"/>
+    <col min="10" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1373,7 +922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:9">
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1402,7 +951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="5:9">
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1419,29 +968,131 @@
         <v>24</v>
       </c>
     </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <mergeCells count="3">
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A5:$XFD5 A1"/>
+      <selection sqref="A5:XFD5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="8.63333333333333" customWidth="1"/>
+    <col min="1" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/部署脚本/20190613/20190613_转测清单.xlsx
+++ b/部署脚本/20190613/20190613_转测清单.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\部署脚本\20190613\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE1F2D-BBE1-48FA-8598-E43E07E3D324}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="升级清单" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>服务</t>
   </si>
@@ -101,6 +95,37 @@
     <t>孙东波</t>
   </si>
   <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>JAVAR-1175
+tts任务变量params参数分割符问题</t>
+  </si>
+  <si>
+    <t>正常发布</t>
+  </si>
+  <si>
+    <t>裴清华</t>
+  </si>
+  <si>
+    <t>JAVAR-1156
+呼叫中心重复挂断，致robot重复释放机器人。</t>
+  </si>
+  <si>
+    <t>thirdApi</t>
+  </si>
+  <si>
+    <t>JAVAR-1160
+【预生产环境】三方API，查询批次号的通话列表接口，参数pageNum上限未设定为5000</t>
+  </si>
+  <si>
+    <t>linemarket</t>
+  </si>
+  <si>
+    <t>JAVAR-1056
+queryUserSipLineByLineId 接口增加缓存</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -141,120 +166,75 @@
     <t>OK</t>
   </si>
   <si>
+    <t>robot/dispatch</t>
+  </si>
+  <si>
+    <t>api添加tts任务</t>
+  </si>
+  <si>
+    <t>通过api添加tts任务时，params使用~分割</t>
+  </si>
+  <si>
+    <t>能正常拨出电话</t>
+  </si>
+  <si>
+    <t>电话挂断</t>
+  </si>
+  <si>
+    <t>人为制造重复挂断</t>
+  </si>
+  <si>
+    <t>重复挂断时，机器人未受影响</t>
+  </si>
+  <si>
+    <t>api查询参数pageNum</t>
+  </si>
+  <si>
+    <t>查询参数pageNum大于5000</t>
+  </si>
+  <si>
+    <t>报错</t>
+  </si>
+  <si>
+    <t>根据用户id,线路id查询线路名</t>
+  </si>
+  <si>
+    <t>1、能正常打电话
+2、变更线路名称</t>
+  </si>
+  <si>
+    <t>2、呼叫中心的记录的线路名称也随着变更</t>
+  </si>
+  <si>
+    <t>auth/zuul</t>
+  </si>
+  <si>
+    <t>登录失败提示</t>
+  </si>
+  <si>
+    <t>JAVAR-1127 
+预生产环境用户登录提示语不符合实际情况</t>
+  </si>
+  <si>
     <t>1.登录系统时，填错误的密码，看提示信息
 2.选择非有效期内的用户登录，看提示信息</t>
   </si>
   <si>
     <t>1.用户名密码错
 2.非有效期内帐号</t>
-  </si>
-  <si>
-    <t>robot/dispatch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>api添加tts任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVAR-1175
-tts任务变量params参数分割符问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过api添加tts任务时，params使用~分割</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能正常拨出电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>裴清华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>robot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话挂断</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVAR-1156
-呼叫中心重复挂断，致robot重复释放机器人。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人为制造重复挂断</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复挂断时，机器人未受影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>thirdApi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>api查询参数pageNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVAR-1160
-【预生产环境】三方API，查询批次号的通话列表接口，参数pageNum上限未设定为5000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询参数pageNum大于5000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>linemarket</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据用户id,线路id查询线路名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVAR-1056
-queryUserSipLineByLineId 接口增加缓存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、能正常打电话
-2、变更线路名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、呼叫中心的记录的线路名称也随着变更</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常发布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -269,12 +249,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +419,194 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -302,9 +614,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -324,6 +878,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -336,14 +893,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -416,9 +1017,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -676,19 +1274,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
@@ -697,17 +1295,17 @@
     <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -723,45 +1321,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -778,7 +1376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -795,95 +1393,96 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" ht="27" spans="1:8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" ht="27" spans="1:8">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="40.5" spans="1:8">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" ht="27" spans="1:8">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E8:E11"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H8:H11"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="55.5" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
     <col min="4" max="4" width="43.25" customWidth="1"/>
     <col min="5" max="5" width="77.375" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
@@ -893,36 +1492,36 @@
     <col min="10" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" ht="27" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -930,19 +1529,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -951,148 +1550,161 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="5" ht="27" spans="1:9">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:9">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:9">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" ht="27" spans="1:9">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" ht="27" spans="1:9">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A5:XFD5 A1"/>
+      <selection activeCell="A1" sqref="$A5:$XFD5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>